--- a/dhcp.xlsx
+++ b/dhcp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\martes-viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566DB6C-3B7B-4715-A3FD-AAD024288E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A630C7-5ED8-46DF-A453-4A3C83D0FD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{330D1760-978C-4060-95D5-CB9C946DBAB7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{330D1760-978C-4060-95D5-CB9C946DBAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ipv4" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>CLASE</t>
   </si>
@@ -414,12 +414,86 @@
   <si>
     <t>resumir 0</t>
   </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>Extended Unique Identifier</t>
+  </si>
+  <si>
+    <t>Valor 7Bit</t>
+  </si>
+  <si>
+    <t>Inserta FFFE</t>
+  </si>
+  <si>
+    <t>Mac-address</t>
+  </si>
+  <si>
+    <t>0006:2AA7:9043</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06:2AFF:FEA7:9043</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0006:2A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF:FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A7:9044</t>
+    </r>
+  </si>
+  <si>
+    <t>FE80::</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +524,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -551,9 +638,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -569,18 +653,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +663,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,25 +709,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,158 +1045,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>127255255255</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>191255255255</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>223255255255</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>239255255255</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="29">
         <f>256^4</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1246,33 +1336,33 @@
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1291,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C5A05D-34EA-4420-8E79-E476FCA8D07C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B12"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,111 +1393,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4">
         <v>2000</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="33">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1419,75 +1509,75 @@
       <c r="E8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1500,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE87E27-F165-409D-93ED-54712A9BC655}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,9 +1601,11 @@
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1523,8 +1615,17 @@
       <c r="C1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1534,8 +1635,41 @@
       <c r="C2" s="3">
         <v>250</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dhcp.xlsx
+++ b/dhcp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\martes-viernes-19hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A630C7-5ED8-46DF-A453-4A3C83D0FD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA4D65-8D3E-4D3A-9391-010E6E482A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{330D1760-978C-4060-95D5-CB9C946DBAB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{330D1760-978C-4060-95D5-CB9C946DBAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ipv4" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="104">
   <si>
     <t>CLASE</t>
   </si>
@@ -493,7 +493,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="223" formatCode="0.0000000000000000000000000000000000000000000000000000000000000E+00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,13 +544,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -650,9 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,9 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,6 +700,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,20 +721,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C146F-E028-4E76-8ABE-B32ED784F160}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,13 +1067,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
@@ -1072,7 +1094,7 @@
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1174,29 +1196,29 @@
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="30">
         <f>256^4</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1336,33 +1358,33 @@
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1381,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C5A05D-34EA-4420-8E79-E476FCA8D07C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,37 +1489,38 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="37">
         <f>2^128</f>
         <v>3.4028236692093846E+38</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1509,22 +1532,22 @@
       <c r="E8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -1532,58 +1555,65 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="36" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1592,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE87E27-F165-409D-93ED-54712A9BC655}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1641,7 +1671,7 @@
       <c r="F2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1652,7 +1682,7 @@
       <c r="F3" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1663,7 +1693,7 @@
       <c r="F4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="29" t="s">
         <v>100</v>
       </c>
     </row>
